--- a/TestCPy/bin/Debug/netcoreapp3.1/Players/Philadelphia_76ers__.xlsx
+++ b/TestCPy/bin/Debug/netcoreapp3.1/Players/Philadelphia_76ers__.xlsx
@@ -588,37 +588,37 @@
         <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>815</v>
+        <v>841</v>
       </c>
       <c r="G2" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H2" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="I2" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="J2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L2" t="n">
-        <v>0.361</v>
+        <v>0.36</v>
       </c>
       <c r="M2" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N2" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O2" t="n">
         <v>0.496</v>
@@ -627,25 +627,25 @@
         <v>0.506</v>
       </c>
       <c r="Q2" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R2" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S2" t="n">
-        <v>0.892</v>
+        <v>0.893</v>
       </c>
       <c r="T2" t="n">
         <v>9</v>
       </c>
       <c r="U2" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V2" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="W2" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="X2" t="n">
         <v>17</v>
@@ -654,13 +654,13 @@
         <v>14</v>
       </c>
       <c r="Z2" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA2" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB2" t="n">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3">
@@ -676,79 +676,79 @@
         <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="n">
-        <v>754</v>
+        <v>789</v>
       </c>
       <c r="G3" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="H3" t="n">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="I3" t="n">
-        <v>0.502</v>
+        <v>0.506</v>
       </c>
       <c r="J3" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K3" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="L3" t="n">
-        <v>0.405</v>
+        <v>0.411</v>
       </c>
       <c r="M3" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N3" t="n">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="O3" t="n">
-        <v>0.583</v>
+        <v>0.586</v>
       </c>
       <c r="P3" t="n">
-        <v>0.594</v>
+        <v>0.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="R3" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="S3" t="n">
-        <v>0.885</v>
+        <v>0.875</v>
       </c>
       <c r="T3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U3" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V3" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="W3" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="n">
         <v>3</v>
       </c>
       <c r="Z3" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA3" t="n">
         <v>52</v>
       </c>
       <c r="AB3" t="n">
-        <v>349</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4">
@@ -764,43 +764,43 @@
         <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="G4" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H4" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="I4" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="J4" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K4" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L4" t="n">
-        <v>0.389</v>
+        <v>0.388</v>
       </c>
       <c r="M4" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O4" t="n">
-        <v>0.506</v>
+        <v>0.511</v>
       </c>
       <c r="P4" t="n">
-        <v>0.553</v>
+        <v>0.554</v>
       </c>
       <c r="Q4" t="n">
         <v>27</v>
@@ -824,19 +824,19 @@
         <v>41</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
       </c>
       <c r="Z4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AB4" t="n">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5">
@@ -845,86 +845,86 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Furkan Korkmaz</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E5" t="n">
+        <v>16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>552</v>
+      </c>
+      <c r="G5" t="n">
+        <v>123</v>
+      </c>
+      <c r="H5" t="n">
+        <v>260</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="J5" t="n">
+        <v>21</v>
+      </c>
+      <c r="K5" t="n">
+        <v>67</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="M5" t="n">
+        <v>102</v>
+      </c>
+      <c r="N5" t="n">
+        <v>193</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>41</v>
+      </c>
+      <c r="R5" t="n">
+        <v>50</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="T5" t="n">
+        <v>18</v>
+      </c>
+      <c r="U5" t="n">
+        <v>114</v>
+      </c>
+      <c r="V5" t="n">
+        <v>132</v>
+      </c>
+      <c r="W5" t="n">
+        <v>56</v>
+      </c>
+      <c r="X5" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA5" t="n">
         <v>23</v>
       </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>531</v>
-      </c>
-      <c r="G5" t="n">
-        <v>76</v>
-      </c>
-      <c r="H5" t="n">
-        <v>200</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="J5" t="n">
-        <v>37</v>
-      </c>
-      <c r="K5" t="n">
-        <v>117</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.316</v>
-      </c>
-      <c r="M5" t="n">
-        <v>39</v>
-      </c>
-      <c r="N5" t="n">
-        <v>83</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.473</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>21</v>
-      </c>
-      <c r="R5" t="n">
-        <v>26</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.8080000000000001</v>
-      </c>
-      <c r="T5" t="n">
-        <v>7</v>
-      </c>
-      <c r="U5" t="n">
-        <v>59</v>
-      </c>
-      <c r="V5" t="n">
-        <v>66</v>
-      </c>
-      <c r="W5" t="n">
-        <v>59</v>
-      </c>
-      <c r="X5" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>20</v>
-      </c>
       <c r="AB5" t="n">
-        <v>210</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6">
@@ -933,86 +933,86 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Furkan Korkmaz</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="G6" t="n">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="H6" t="n">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="I6" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="J6" t="n">
+        <v>37</v>
+      </c>
+      <c r="K6" t="n">
+        <v>119</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="M6" t="n">
+        <v>39</v>
+      </c>
+      <c r="N6" t="n">
+        <v>83</v>
+      </c>
+      <c r="O6" t="n">
         <v>0.47</v>
       </c>
-      <c r="J6" t="n">
-        <v>19</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="P6" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>21</v>
+      </c>
+      <c r="R6" t="n">
+        <v>26</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="T6" t="n">
+        <v>7</v>
+      </c>
+      <c r="U6" t="n">
         <v>62</v>
       </c>
-      <c r="L6" t="n">
-        <v>0.306</v>
-      </c>
-      <c r="M6" t="n">
-        <v>97</v>
-      </c>
-      <c r="N6" t="n">
-        <v>185</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.524</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.508</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>39</v>
-      </c>
-      <c r="R6" t="n">
-        <v>48</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.8129999999999999</v>
-      </c>
-      <c r="T6" t="n">
-        <v>16</v>
-      </c>
-      <c r="U6" t="n">
-        <v>110</v>
-      </c>
       <c r="V6" t="n">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="W6" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="X6" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Z6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB6" t="n">
-        <v>290</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7">
@@ -1028,43 +1028,43 @@
         <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>485</v>
+        <v>507</v>
       </c>
       <c r="G7" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H7" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="I7" t="n">
-        <v>0.463</v>
+        <v>0.466</v>
       </c>
       <c r="J7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K7" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L7" t="n">
-        <v>0.328</v>
+        <v>0.344</v>
       </c>
       <c r="M7" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N7" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O7" t="n">
         <v>0.523</v>
       </c>
       <c r="P7" t="n">
-        <v>0.513</v>
+        <v>0.521</v>
       </c>
       <c r="Q7" t="n">
         <v>30</v>
@@ -1079,28 +1079,28 @@
         <v>10</v>
       </c>
       <c r="U7" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V7" t="n">
+        <v>61</v>
+      </c>
+      <c r="W7" t="n">
         <v>58</v>
-      </c>
-      <c r="W7" t="n">
-        <v>55</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB7" t="n">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8">
@@ -1116,22 +1116,22 @@
         <v>28</v>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="G8" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H8" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I8" t="n">
-        <v>0.484</v>
+        <v>0.492</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1143,52 +1143,52 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N8" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O8" t="n">
-        <v>0.488</v>
+        <v>0.496</v>
       </c>
       <c r="P8" t="n">
-        <v>0.484</v>
+        <v>0.492</v>
       </c>
       <c r="Q8" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="R8" t="n">
+        <v>53</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="T8" t="n">
+        <v>79</v>
+      </c>
+      <c r="U8" t="n">
+        <v>161</v>
+      </c>
+      <c r="V8" t="n">
+        <v>240</v>
+      </c>
+      <c r="W8" t="n">
         <v>49</v>
       </c>
-      <c r="S8" t="n">
-        <v>0.531</v>
-      </c>
-      <c r="T8" t="n">
-        <v>76</v>
-      </c>
-      <c r="U8" t="n">
-        <v>159</v>
-      </c>
-      <c r="V8" t="n">
-        <v>235</v>
-      </c>
-      <c r="W8" t="n">
-        <v>47</v>
-      </c>
       <c r="X8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z8" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA8" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AB8" t="n">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
@@ -1204,79 +1204,79 @@
         <v>27</v>
       </c>
       <c r="D9" t="n">
+        <v>15</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15</v>
+      </c>
+      <c r="F9" t="n">
+        <v>496</v>
+      </c>
+      <c r="G9" t="n">
+        <v>112</v>
+      </c>
+      <c r="H9" t="n">
+        <v>254</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="J9" t="n">
+        <v>20</v>
+      </c>
+      <c r="K9" t="n">
+        <v>49</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="M9" t="n">
+        <v>92</v>
+      </c>
+      <c r="N9" t="n">
+        <v>205</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>123</v>
+      </c>
+      <c r="R9" t="n">
+        <v>159</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="T9" t="n">
+        <v>29</v>
+      </c>
+      <c r="U9" t="n">
+        <v>137</v>
+      </c>
+      <c r="V9" t="n">
+        <v>166</v>
+      </c>
+      <c r="W9" t="n">
+        <v>65</v>
+      </c>
+      <c r="X9" t="n">
         <v>14</v>
-      </c>
-      <c r="E9" t="n">
-        <v>14</v>
-      </c>
-      <c r="F9" t="n">
-        <v>463</v>
-      </c>
-      <c r="G9" t="n">
-        <v>104</v>
-      </c>
-      <c r="H9" t="n">
-        <v>237</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.439</v>
-      </c>
-      <c r="J9" t="n">
-        <v>19</v>
-      </c>
-      <c r="K9" t="n">
-        <v>47</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.404</v>
-      </c>
-      <c r="M9" t="n">
-        <v>85</v>
-      </c>
-      <c r="N9" t="n">
-        <v>190</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.447</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>108</v>
-      </c>
-      <c r="R9" t="n">
-        <v>140</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.771</v>
-      </c>
-      <c r="T9" t="n">
-        <v>28</v>
-      </c>
-      <c r="U9" t="n">
-        <v>130</v>
-      </c>
-      <c r="V9" t="n">
-        <v>158</v>
-      </c>
-      <c r="W9" t="n">
-        <v>61</v>
-      </c>
-      <c r="X9" t="n">
-        <v>13</v>
       </c>
       <c r="Y9" t="n">
         <v>22</v>
       </c>
       <c r="Z9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA9" t="n">
         <v>40</v>
       </c>
-      <c r="AA9" t="n">
-        <v>36</v>
-      </c>
       <c r="AB9" t="n">
-        <v>335</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10">
@@ -1292,43 +1292,43 @@
         <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="G10" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H10" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I10" t="n">
-        <v>0.519</v>
+        <v>0.5</v>
       </c>
       <c r="J10" t="n">
         <v>11</v>
       </c>
       <c r="K10" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L10" t="n">
-        <v>0.297</v>
+        <v>0.275</v>
       </c>
       <c r="M10" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N10" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O10" t="n">
-        <v>0.725</v>
+        <v>0.705</v>
       </c>
       <c r="P10" t="n">
-        <v>0.591</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="Q10" t="n">
         <v>6</v>
@@ -1352,7 +1352,7 @@
         <v>19</v>
       </c>
       <c r="X10" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="n">
         <v>22</v>
@@ -1361,10 +1361,10 @@
         <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
@@ -1380,43 +1380,43 @@
         <v>34</v>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="G11" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H11" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="I11" t="n">
-        <v>0.461</v>
+        <v>0.454</v>
       </c>
       <c r="J11" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K11" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L11" t="n">
-        <v>0.419</v>
+        <v>0.418</v>
       </c>
       <c r="M11" t="n">
         <v>11</v>
       </c>
       <c r="N11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.647</v>
       </c>
       <c r="P11" t="n">
-        <v>0.637</v>
+        <v>0.63</v>
       </c>
       <c r="Q11" t="n">
         <v>4</v>
@@ -1428,31 +1428,31 @@
         <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U11" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V11" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="W11" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="X11" t="n">
         <v>24</v>
       </c>
       <c r="Y11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Z11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AA11" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AB11" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
@@ -1884,77 +1884,77 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>5835</v>
+        <v>6075</v>
       </c>
       <c r="G17" t="n">
-        <v>950</v>
+        <v>986</v>
       </c>
       <c r="H17" t="n">
-        <v>2071</v>
+        <v>2146</v>
       </c>
       <c r="I17" t="n">
         <v>0.459</v>
       </c>
       <c r="J17" t="n">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="K17" t="n">
-        <v>772</v>
+        <v>806</v>
       </c>
       <c r="L17" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="M17" t="n">
-        <v>672</v>
+        <v>695</v>
       </c>
       <c r="N17" t="n">
-        <v>1299</v>
+        <v>1340</v>
       </c>
       <c r="O17" t="n">
-        <v>0.517</v>
+        <v>0.519</v>
       </c>
       <c r="P17" t="n">
-        <v>0.526</v>
+        <v>0.527</v>
       </c>
       <c r="Q17" t="n">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="R17" t="n">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="T17" t="n">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="U17" t="n">
-        <v>817</v>
+        <v>845</v>
       </c>
       <c r="V17" t="n">
-        <v>1028</v>
+        <v>1064</v>
       </c>
       <c r="W17" t="n">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="X17" t="n">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Y17" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Z17" t="n">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="AA17" t="n">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="AB17" t="n">
-        <v>2568</v>
+        <v>2678</v>
       </c>
     </row>
   </sheetData>
